--- a/src/main/resources/emails.xlsx
+++ b/src/main/resources/emails.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\email-sender\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Angular\Java project\email-sender\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582F287E-9B71-4FA6-B01D-CD9A2CA85D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D9F12F-B2E9-41ED-9489-D45F1EBE5246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3F5F3BB4-F88B-49AC-A626-3C70FC48CC39}"/>
+    <workbookView xWindow="1410" yWindow="1410" windowWidth="16200" windowHeight="9308" xr2:uid="{3F5F3BB4-F88B-49AC-A626-3C70FC48CC39}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>johnlouis3192@gmail.com</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>HR Email</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Job Title</t>
+  </si>
+  <si>
+    <t>Current Date</t>
+  </si>
+  <si>
+    <t>Aziz</t>
+  </si>
+  <si>
+    <t>Nayab</t>
+  </si>
+  <si>
+    <t>LTI Mindtree</t>
+  </si>
+  <si>
+    <t>Senior Software Developer</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -46,13 +80,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9FC5E8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -68,9 +127,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -386,29 +457,122 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B353C87A-B6A6-48F1-A037-226BB697CB5C}">
-  <dimension ref="B1:B4"/>
+  <dimension ref="A1:AD4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="1" max="1" width="21.9296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.19921875" customWidth="1"/>
+    <col min="4" max="4" width="18.73046875" customWidth="1"/>
+    <col min="5" max="5" width="16.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1" s="1"/>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2" s="1"/>
+    <row r="2" spans="1:30" ht="26.25" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4">
+        <v>45575</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.45">
       <c r="B3" s="1"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.45">
       <c r="B4" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{5A20C769-00D3-4A78-A6AC-A1C749CA155E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>